--- a/Jogos_da_Semana_FlashScore_2025-06-11.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-06-11.xlsx
@@ -1017,7 +1017,7 @@
         </is>
       </c>
       <c r="G7" t="n">
-        <v>1.73</v>
+        <v>1.68</v>
       </c>
       <c r="H7" t="n">
         <v>3.6</v>
@@ -1044,10 +1044,10 @@
         <v>1.62</v>
       </c>
       <c r="P7" t="n">
-        <v>1.44</v>
+        <v>1.41</v>
       </c>
       <c r="Q7" t="n">
-        <v>2.63</v>
+        <v>2.62</v>
       </c>
       <c r="R7" t="n">
         <v>2.2</v>
@@ -1137,21 +1137,21 @@
         </is>
       </c>
       <c r="G8" t="n">
-        <v>2.95</v>
+        <v>2.92</v>
       </c>
       <c r="H8" t="n">
-        <v>3</v>
+        <v>3.05</v>
       </c>
       <c r="I8" t="n">
-        <v>2.4</v>
+        <v>2.37</v>
       </c>
       <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
       <c r="L8" t="n">
-        <v>1.33</v>
+        <v>1.32</v>
       </c>
       <c r="M8" t="n">
-        <v>2.8</v>
+        <v>2.82</v>
       </c>
       <c r="N8" t="n">
         <v>1.98</v>
@@ -1160,52 +1160,52 @@
         <v>1.65</v>
       </c>
       <c r="P8" t="n">
-        <v>1.45</v>
+        <v>1.44</v>
       </c>
       <c r="Q8" t="n">
-        <v>2.37</v>
+        <v>2.4</v>
       </c>
       <c r="R8" t="n">
-        <v>1.7</v>
+        <v>1.72</v>
       </c>
       <c r="S8" t="n">
-        <v>1.91</v>
+        <v>1.9</v>
       </c>
       <c r="T8" t="n">
-        <v>9</v>
+        <v>8.75</v>
       </c>
       <c r="U8" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="V8" t="n">
         <v>10.5</v>
       </c>
       <c r="W8" t="n">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="X8" t="n">
         <v>26</v>
       </c>
       <c r="Y8" t="n">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="Z8" t="n">
         <v>8.5</v>
       </c>
       <c r="AA8" t="n">
-        <v>5.8</v>
+        <v>5.9</v>
       </c>
       <c r="AB8" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="AC8" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="AD8" t="n">
         <v>500</v>
       </c>
       <c r="AE8" t="n">
-        <v>7.5</v>
+        <v>7.6</v>
       </c>
       <c r="AF8" t="n">
         <v>11.75</v>
@@ -1214,10 +1214,10 @@
         <v>9.25</v>
       </c>
       <c r="AH8" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AI8" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AJ8" t="n">
         <v>30</v>
@@ -1284,7 +1284,7 @@
         <v>2.35</v>
       </c>
       <c r="R9" t="n">
-        <v>2.02</v>
+        <v>2.05</v>
       </c>
       <c r="S9" t="n">
         <v>1.62</v>
@@ -1679,70 +1679,70 @@
         </is>
       </c>
       <c r="G14" t="n">
-        <v>1.7</v>
+        <v>1.62</v>
       </c>
       <c r="H14" t="n">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
       <c r="I14" t="n">
-        <v>4.3</v>
+        <v>4.7</v>
       </c>
       <c r="J14" t="n">
         <v>1.06</v>
       </c>
       <c r="K14" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="L14" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="M14" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="N14" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="O14" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="P14" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>2.77</v>
+      </c>
+      <c r="R14" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="S14" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="T14" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="U14" t="n">
         <v>7.4</v>
-      </c>
-      <c r="L14" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="M14" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="N14" t="n">
-        <v>1.88</v>
-      </c>
-      <c r="O14" t="n">
-        <v>1.82</v>
-      </c>
-      <c r="P14" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="Q14" t="n">
-        <v>2.7</v>
-      </c>
-      <c r="R14" t="n">
-        <v>1.85</v>
-      </c>
-      <c r="S14" t="n">
-        <v>1.85</v>
-      </c>
-      <c r="T14" t="n">
-        <v>6.7</v>
-      </c>
-      <c r="U14" t="n">
-        <v>7.7</v>
       </c>
       <c r="V14" t="n">
         <v>8.25</v>
       </c>
       <c r="W14" t="n">
-        <v>13</v>
+        <v>11.75</v>
       </c>
       <c r="X14" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="Y14" t="n">
         <v>28</v>
       </c>
       <c r="Z14" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AA14" t="n">
         <v>7.4</v>
       </c>
-      <c r="AA14" t="n">
-        <v>7.1</v>
-      </c>
       <c r="AB14" t="n">
-        <v>16.5</v>
+        <v>17</v>
       </c>
       <c r="AC14" t="n">
         <v>80</v>
@@ -1751,22 +1751,22 @@
         <v>700</v>
       </c>
       <c r="AE14" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AF14" t="n">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="AG14" t="n">
-        <v>14.5</v>
+        <v>15.5</v>
       </c>
       <c r="AH14" t="n">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="AI14" t="n">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="AJ14" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
     </row>
   </sheetData>

--- a/Jogos_da_Semana_FlashScore_2025-06-11.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-06-11.xlsx
@@ -895,19 +895,19 @@
         </is>
       </c>
       <c r="G6" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="H6" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="I6" t="n">
-        <v>3.5</v>
+        <v>3.7</v>
       </c>
       <c r="J6" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="K6" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="L6" t="n">
         <v>1.36</v>
@@ -937,13 +937,13 @@
         <v>6.5</v>
       </c>
       <c r="U6" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="V6" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="W6" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="X6" t="n">
         <v>19</v>
@@ -967,7 +967,7 @@
         <v>351</v>
       </c>
       <c r="AE6" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AF6" t="n">
         <v>17</v>
@@ -979,7 +979,7 @@
         <v>41</v>
       </c>
       <c r="AI6" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AJ6" t="n">
         <v>41</v>
@@ -1017,7 +1017,7 @@
         </is>
       </c>
       <c r="G7" t="n">
-        <v>1.68</v>
+        <v>1.73</v>
       </c>
       <c r="H7" t="n">
         <v>3.6</v>
@@ -1044,10 +1044,10 @@
         <v>1.62</v>
       </c>
       <c r="P7" t="n">
-        <v>1.41</v>
+        <v>1.44</v>
       </c>
       <c r="Q7" t="n">
-        <v>2.62</v>
+        <v>2.63</v>
       </c>
       <c r="R7" t="n">
         <v>2.2</v>
@@ -1148,73 +1148,73 @@
       <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
       <c r="L8" t="n">
-        <v>1.32</v>
+        <v>1.31</v>
       </c>
       <c r="M8" t="n">
-        <v>2.82</v>
+        <v>2.87</v>
       </c>
       <c r="N8" t="n">
-        <v>1.98</v>
+        <v>1.91</v>
       </c>
       <c r="O8" t="n">
-        <v>1.65</v>
+        <v>1.7</v>
       </c>
       <c r="P8" t="n">
         <v>1.44</v>
       </c>
       <c r="Q8" t="n">
-        <v>2.4</v>
+        <v>2.42</v>
       </c>
       <c r="R8" t="n">
-        <v>1.72</v>
+        <v>1.7</v>
       </c>
       <c r="S8" t="n">
-        <v>1.9</v>
+        <v>1.93</v>
       </c>
       <c r="T8" t="n">
-        <v>8.75</v>
+        <v>9.25</v>
       </c>
       <c r="U8" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="V8" t="n">
-        <v>10.5</v>
+        <v>10.25</v>
       </c>
       <c r="W8" t="n">
         <v>37</v>
       </c>
       <c r="X8" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="Y8" t="n">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="Z8" t="n">
-        <v>8.5</v>
+        <v>8.75</v>
       </c>
       <c r="AA8" t="n">
         <v>5.9</v>
       </c>
       <c r="AB8" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="AC8" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="AD8" t="n">
-        <v>500</v>
+        <v>450</v>
       </c>
       <c r="AE8" t="n">
         <v>7.6</v>
       </c>
       <c r="AF8" t="n">
-        <v>11.75</v>
+        <v>11.5</v>
       </c>
       <c r="AG8" t="n">
         <v>9.25</v>
       </c>
       <c r="AH8" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AI8" t="n">
         <v>20</v>
@@ -1255,13 +1255,13 @@
         </is>
       </c>
       <c r="G9" t="n">
-        <v>4.5</v>
+        <v>3.7</v>
       </c>
       <c r="H9" t="n">
-        <v>3.5</v>
+        <v>3.35</v>
       </c>
       <c r="I9" t="n">
-        <v>1.72</v>
+        <v>1.91</v>
       </c>
       <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
@@ -1284,59 +1284,59 @@
         <v>2.35</v>
       </c>
       <c r="R9" t="n">
-        <v>2.05</v>
+        <v>1.98</v>
       </c>
       <c r="S9" t="n">
-        <v>1.62</v>
+        <v>1.65</v>
       </c>
       <c r="T9" t="n">
-        <v>10.25</v>
+        <v>9</v>
       </c>
       <c r="U9" t="n">
-        <v>23</v>
+        <v>18.5</v>
       </c>
       <c r="V9" t="n">
-        <v>16</v>
+        <v>13.5</v>
       </c>
       <c r="W9" t="n">
-        <v>75</v>
+        <v>55</v>
       </c>
       <c r="X9" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="Y9" t="n">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="Z9" t="n">
         <v>8</v>
       </c>
       <c r="AA9" t="n">
-        <v>6.9</v>
+        <v>6.5</v>
       </c>
       <c r="AB9" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="AC9" t="n">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="AD9" t="inlineStr"/>
       <c r="AE9" t="n">
-        <v>5.6</v>
+        <v>6</v>
       </c>
       <c r="AF9" t="n">
-        <v>7.1</v>
+        <v>8.25</v>
       </c>
       <c r="AG9" t="n">
         <v>8.75</v>
       </c>
       <c r="AH9" t="n">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="AI9" t="n">
-        <v>16</v>
+        <v>17.5</v>
       </c>
       <c r="AJ9" t="n">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="10">
@@ -1596,7 +1596,7 @@
         <v>1.91</v>
       </c>
       <c r="T13" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="U13" t="n">
         <v>12</v>
@@ -1605,7 +1605,7 @@
         <v>10</v>
       </c>
       <c r="W13" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="X13" t="n">
         <v>21</v>
@@ -1641,10 +1641,10 @@
         <v>26</v>
       </c>
       <c r="AI13" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AJ13" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
     </row>
     <row r="14">
@@ -1679,70 +1679,70 @@
         </is>
       </c>
       <c r="G14" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="H14" t="n">
-        <v>3.7</v>
+        <v>3.85</v>
       </c>
       <c r="I14" t="n">
-        <v>4.7</v>
+        <v>4.85</v>
       </c>
       <c r="J14" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="K14" t="n">
-        <v>7.5</v>
+        <v>7.7</v>
       </c>
       <c r="L14" t="n">
-        <v>1.29</v>
+        <v>1.27</v>
       </c>
       <c r="M14" t="n">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="N14" t="n">
-        <v>1.85</v>
+        <v>1.82</v>
       </c>
       <c r="O14" t="n">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="P14" t="n">
-        <v>1.39</v>
+        <v>1.37</v>
       </c>
       <c r="Q14" t="n">
-        <v>2.77</v>
+        <v>2.85</v>
       </c>
       <c r="R14" t="n">
-        <v>1.88</v>
+        <v>1.87</v>
       </c>
       <c r="S14" t="n">
-        <v>1.82</v>
+        <v>1.83</v>
       </c>
       <c r="T14" t="n">
-        <v>6.6</v>
+        <v>6.8</v>
       </c>
       <c r="U14" t="n">
-        <v>7.4</v>
+        <v>7.3</v>
       </c>
       <c r="V14" t="n">
         <v>8.25</v>
       </c>
       <c r="W14" t="n">
-        <v>11.75</v>
+        <v>11.5</v>
       </c>
       <c r="X14" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="Y14" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="Z14" t="n">
-        <v>7.5</v>
+        <v>7.7</v>
       </c>
       <c r="AA14" t="n">
-        <v>7.4</v>
+        <v>7.6</v>
       </c>
       <c r="AB14" t="n">
-        <v>17</v>
+        <v>17.5</v>
       </c>
       <c r="AC14" t="n">
         <v>80</v>
@@ -1751,16 +1751,16 @@
         <v>700</v>
       </c>
       <c r="AE14" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="AF14" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AG14" t="n">
-        <v>15.5</v>
+        <v>16</v>
       </c>
       <c r="AH14" t="n">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="AI14" t="n">
         <v>50</v>

--- a/Jogos_da_Semana_FlashScore_2025-06-11.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-06-11.xlsx
@@ -1370,36 +1370,90 @@
           <t>Gualaceo</t>
         </is>
       </c>
-      <c r="G10" t="inlineStr"/>
-      <c r="H10" t="inlineStr"/>
-      <c r="I10" t="inlineStr"/>
+      <c r="G10" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="H10" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="I10" t="n">
+        <v>2.85</v>
+      </c>
       <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
-      <c r="L10" t="inlineStr"/>
-      <c r="M10" t="inlineStr"/>
-      <c r="N10" t="inlineStr"/>
-      <c r="O10" t="inlineStr"/>
-      <c r="P10" t="inlineStr"/>
-      <c r="Q10" t="inlineStr"/>
-      <c r="R10" t="inlineStr"/>
-      <c r="S10" t="inlineStr"/>
-      <c r="T10" t="inlineStr"/>
-      <c r="U10" t="inlineStr"/>
-      <c r="V10" t="inlineStr"/>
-      <c r="W10" t="inlineStr"/>
-      <c r="X10" t="inlineStr"/>
-      <c r="Y10" t="inlineStr"/>
-      <c r="Z10" t="inlineStr"/>
-      <c r="AA10" t="inlineStr"/>
-      <c r="AB10" t="inlineStr"/>
-      <c r="AC10" t="inlineStr"/>
+      <c r="L10" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="M10" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="N10" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="O10" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="P10" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="R10" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="S10" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="T10" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="U10" t="n">
+        <v>10.75</v>
+      </c>
+      <c r="V10" t="n">
+        <v>10</v>
+      </c>
+      <c r="W10" t="n">
+        <v>25</v>
+      </c>
+      <c r="X10" t="n">
+        <v>23</v>
+      </c>
+      <c r="Y10" t="n">
+        <v>40</v>
+      </c>
+      <c r="Z10" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="AA10" t="n">
+        <v>6</v>
+      </c>
+      <c r="AB10" t="n">
+        <v>17</v>
+      </c>
+      <c r="AC10" t="n">
+        <v>100</v>
+      </c>
       <c r="AD10" t="inlineStr"/>
-      <c r="AE10" t="inlineStr"/>
-      <c r="AF10" t="inlineStr"/>
-      <c r="AG10" t="inlineStr"/>
-      <c r="AH10" t="inlineStr"/>
-      <c r="AI10" t="inlineStr"/>
-      <c r="AJ10" t="inlineStr"/>
+      <c r="AE10" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="AF10" t="n">
+        <v>13</v>
+      </c>
+      <c r="AG10" t="n">
+        <v>11</v>
+      </c>
+      <c r="AH10" t="n">
+        <v>35</v>
+      </c>
+      <c r="AI10" t="n">
+        <v>29</v>
+      </c>
+      <c r="AJ10" t="n">
+        <v>45</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -1432,36 +1486,92 @@
           <t>Nueve de Octubre</t>
         </is>
       </c>
-      <c r="G11" t="inlineStr"/>
-      <c r="H11" t="inlineStr"/>
-      <c r="I11" t="inlineStr"/>
+      <c r="G11" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="H11" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="I11" t="n">
+        <v>3.7</v>
+      </c>
       <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
-      <c r="L11" t="inlineStr"/>
-      <c r="M11" t="inlineStr"/>
-      <c r="N11" t="inlineStr"/>
-      <c r="O11" t="inlineStr"/>
-      <c r="P11" t="inlineStr"/>
-      <c r="Q11" t="inlineStr"/>
-      <c r="R11" t="inlineStr"/>
-      <c r="S11" t="inlineStr"/>
-      <c r="T11" t="inlineStr"/>
-      <c r="U11" t="inlineStr"/>
-      <c r="V11" t="inlineStr"/>
-      <c r="W11" t="inlineStr"/>
-      <c r="X11" t="inlineStr"/>
-      <c r="Y11" t="inlineStr"/>
-      <c r="Z11" t="inlineStr"/>
-      <c r="AA11" t="inlineStr"/>
-      <c r="AB11" t="inlineStr"/>
-      <c r="AC11" t="inlineStr"/>
-      <c r="AD11" t="inlineStr"/>
-      <c r="AE11" t="inlineStr"/>
-      <c r="AF11" t="inlineStr"/>
-      <c r="AG11" t="inlineStr"/>
-      <c r="AH11" t="inlineStr"/>
-      <c r="AI11" t="inlineStr"/>
-      <c r="AJ11" t="inlineStr"/>
+      <c r="L11" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="M11" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="N11" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="O11" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="P11" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="R11" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="S11" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="T11" t="n">
+        <v>6.3</v>
+      </c>
+      <c r="U11" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="V11" t="n">
+        <v>8.75</v>
+      </c>
+      <c r="W11" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="X11" t="n">
+        <v>17</v>
+      </c>
+      <c r="Y11" t="n">
+        <v>32</v>
+      </c>
+      <c r="Z11" t="n">
+        <v>8</v>
+      </c>
+      <c r="AA11" t="n">
+        <v>6.3</v>
+      </c>
+      <c r="AB11" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AC11" t="n">
+        <v>90</v>
+      </c>
+      <c r="AD11" t="n">
+        <v>800</v>
+      </c>
+      <c r="AE11" t="n">
+        <v>9.25</v>
+      </c>
+      <c r="AF11" t="n">
+        <v>19</v>
+      </c>
+      <c r="AG11" t="n">
+        <v>13</v>
+      </c>
+      <c r="AH11" t="n">
+        <v>55</v>
+      </c>
+      <c r="AI11" t="n">
+        <v>40</v>
+      </c>
+      <c r="AJ11" t="n">
+        <v>50</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -1557,13 +1667,13 @@
         </is>
       </c>
       <c r="G13" t="n">
-        <v>2.55</v>
+        <v>2.5</v>
       </c>
       <c r="H13" t="n">
         <v>3.4</v>
       </c>
       <c r="I13" t="n">
-        <v>2.63</v>
+        <v>2.7</v>
       </c>
       <c r="J13" t="n">
         <v>1.06</v>
@@ -1572,16 +1682,16 @@
         <v>10</v>
       </c>
       <c r="L13" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="M13" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="N13" t="n">
-        <v>2.03</v>
+        <v>2.1</v>
       </c>
       <c r="O13" t="n">
-        <v>1.78</v>
+        <v>1.7</v>
       </c>
       <c r="P13" t="n">
         <v>1.4</v>
@@ -1679,31 +1789,31 @@
         </is>
       </c>
       <c r="G14" t="n">
-        <v>1.57</v>
+        <v>1.5</v>
       </c>
       <c r="H14" t="n">
-        <v>3.85</v>
+        <v>3.95</v>
       </c>
       <c r="I14" t="n">
-        <v>4.85</v>
+        <v>5.5</v>
       </c>
       <c r="J14" t="n">
         <v>1.05</v>
       </c>
       <c r="K14" t="n">
-        <v>7.7</v>
+        <v>7.8</v>
       </c>
       <c r="L14" t="n">
-        <v>1.27</v>
+        <v>1.26</v>
       </c>
       <c r="M14" t="n">
-        <v>3.4</v>
+        <v>3.45</v>
       </c>
       <c r="N14" t="n">
-        <v>1.82</v>
+        <v>1.78</v>
       </c>
       <c r="O14" t="n">
-        <v>1.9</v>
+        <v>1.93</v>
       </c>
       <c r="P14" t="n">
         <v>1.37</v>
@@ -1712,34 +1822,34 @@
         <v>2.85</v>
       </c>
       <c r="R14" t="n">
-        <v>1.87</v>
+        <v>1.9</v>
       </c>
       <c r="S14" t="n">
-        <v>1.83</v>
+        <v>1.82</v>
       </c>
       <c r="T14" t="n">
-        <v>6.8</v>
+        <v>6.7</v>
       </c>
       <c r="U14" t="n">
-        <v>7.3</v>
+        <v>7</v>
       </c>
       <c r="V14" t="n">
         <v>8.25</v>
       </c>
       <c r="W14" t="n">
-        <v>11.5</v>
+        <v>10.5</v>
       </c>
       <c r="X14" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="Y14" t="n">
         <v>27</v>
       </c>
       <c r="Z14" t="n">
-        <v>7.7</v>
+        <v>7.8</v>
       </c>
       <c r="AA14" t="n">
-        <v>7.6</v>
+        <v>7.8</v>
       </c>
       <c r="AB14" t="n">
         <v>17.5</v>
@@ -1751,22 +1861,22 @@
         <v>700</v>
       </c>
       <c r="AE14" t="n">
-        <v>13.5</v>
+        <v>15</v>
       </c>
       <c r="AF14" t="n">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="AG14" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="AH14" t="n">
-        <v>90</v>
+        <v>110</v>
       </c>
       <c r="AI14" t="n">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="AJ14" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
     </row>
   </sheetData>

--- a/Jogos_da_Semana_FlashScore_2025-06-11.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-06-11.xlsx
@@ -1137,7 +1137,7 @@
         </is>
       </c>
       <c r="G8" t="n">
-        <v>2.92</v>
+        <v>2.95</v>
       </c>
       <c r="H8" t="n">
         <v>3.05</v>
@@ -1172,22 +1172,22 @@
         <v>1.93</v>
       </c>
       <c r="T8" t="n">
-        <v>9.25</v>
+        <v>9</v>
       </c>
       <c r="U8" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="V8" t="n">
-        <v>10.25</v>
+        <v>10.5</v>
       </c>
       <c r="W8" t="n">
         <v>37</v>
       </c>
       <c r="X8" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="Y8" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="Z8" t="n">
         <v>8.75</v>
@@ -1205,22 +1205,22 @@
         <v>450</v>
       </c>
       <c r="AE8" t="n">
-        <v>7.6</v>
+        <v>8</v>
       </c>
       <c r="AF8" t="n">
-        <v>11.5</v>
+        <v>12</v>
       </c>
       <c r="AG8" t="n">
-        <v>9.25</v>
+        <v>9</v>
       </c>
       <c r="AH8" t="n">
         <v>26</v>
       </c>
       <c r="AI8" t="n">
-        <v>20</v>
+        <v>19.5</v>
       </c>
       <c r="AJ8" t="n">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="9">
@@ -1255,7 +1255,7 @@
         </is>
       </c>
       <c r="G9" t="n">
-        <v>3.7</v>
+        <v>3.75</v>
       </c>
       <c r="H9" t="n">
         <v>3.35</v>
@@ -1324,16 +1324,16 @@
         <v>6</v>
       </c>
       <c r="AF9" t="n">
-        <v>8.25</v>
+        <v>8</v>
       </c>
       <c r="AG9" t="n">
         <v>8.75</v>
       </c>
       <c r="AH9" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="AI9" t="n">
-        <v>17.5</v>
+        <v>17</v>
       </c>
       <c r="AJ9" t="n">
         <v>35</v>
@@ -1406,7 +1406,7 @@
         <v>1.7</v>
       </c>
       <c r="T10" t="n">
-        <v>6.5</v>
+        <v>6.4</v>
       </c>
       <c r="U10" t="n">
         <v>10.75</v>
@@ -1418,7 +1418,7 @@
         <v>25</v>
       </c>
       <c r="X10" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="Y10" t="n">
         <v>40</v>
@@ -1437,7 +1437,7 @@
       </c>
       <c r="AD10" t="inlineStr"/>
       <c r="AE10" t="n">
-        <v>7.2</v>
+        <v>7.3</v>
       </c>
       <c r="AF10" t="n">
         <v>13</v>
@@ -1449,7 +1449,7 @@
         <v>35</v>
       </c>
       <c r="AI10" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AJ10" t="n">
         <v>45</v>
@@ -1493,7 +1493,7 @@
         <v>3.25</v>
       </c>
       <c r="I11" t="n">
-        <v>3.7</v>
+        <v>3.75</v>
       </c>
       <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
@@ -1501,7 +1501,7 @@
         <v>1.36</v>
       </c>
       <c r="M11" t="n">
-        <v>2.65</v>
+        <v>2.67</v>
       </c>
       <c r="N11" t="n">
         <v>2.05</v>
@@ -1516,22 +1516,22 @@
         <v>2.35</v>
       </c>
       <c r="R11" t="n">
-        <v>1.88</v>
+        <v>1.87</v>
       </c>
       <c r="S11" t="n">
-        <v>1.72</v>
+        <v>1.75</v>
       </c>
       <c r="T11" t="n">
-        <v>6.3</v>
+        <v>6.4</v>
       </c>
       <c r="U11" t="n">
+        <v>8.75</v>
+      </c>
+      <c r="V11" t="n">
         <v>8.5</v>
       </c>
-      <c r="V11" t="n">
-        <v>8.75</v>
-      </c>
       <c r="W11" t="n">
-        <v>16.5</v>
+        <v>17</v>
       </c>
       <c r="X11" t="n">
         <v>17</v>
@@ -1604,36 +1604,84 @@
           <t>Kozakken Boys</t>
         </is>
       </c>
-      <c r="G12" t="inlineStr"/>
-      <c r="H12" t="inlineStr"/>
-      <c r="I12" t="inlineStr"/>
+      <c r="G12" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="H12" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="I12" t="n">
+        <v>4.4</v>
+      </c>
       <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
       <c r="L12" t="inlineStr"/>
       <c r="M12" t="inlineStr"/>
-      <c r="N12" t="inlineStr"/>
-      <c r="O12" t="inlineStr"/>
+      <c r="N12" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="O12" t="n">
+        <v>2.35</v>
+      </c>
       <c r="P12" t="inlineStr"/>
       <c r="Q12" t="inlineStr"/>
-      <c r="R12" t="inlineStr"/>
-      <c r="S12" t="inlineStr"/>
-      <c r="T12" t="inlineStr"/>
-      <c r="U12" t="inlineStr"/>
-      <c r="V12" t="inlineStr"/>
-      <c r="W12" t="inlineStr"/>
-      <c r="X12" t="inlineStr"/>
-      <c r="Y12" t="inlineStr"/>
-      <c r="Z12" t="inlineStr"/>
-      <c r="AA12" t="inlineStr"/>
-      <c r="AB12" t="inlineStr"/>
-      <c r="AC12" t="inlineStr"/>
-      <c r="AD12" t="inlineStr"/>
-      <c r="AE12" t="inlineStr"/>
-      <c r="AF12" t="inlineStr"/>
-      <c r="AG12" t="inlineStr"/>
-      <c r="AH12" t="inlineStr"/>
-      <c r="AI12" t="inlineStr"/>
-      <c r="AJ12" t="inlineStr"/>
+      <c r="R12" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="S12" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="T12" t="n">
+        <v>10</v>
+      </c>
+      <c r="U12" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="V12" t="n">
+        <v>8.25</v>
+      </c>
+      <c r="W12" t="n">
+        <v>13</v>
+      </c>
+      <c r="X12" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="Y12" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="Z12" t="n">
+        <v>17</v>
+      </c>
+      <c r="AA12" t="n">
+        <v>8.75</v>
+      </c>
+      <c r="AB12" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AC12" t="n">
+        <v>45</v>
+      </c>
+      <c r="AD12" t="n">
+        <v>250</v>
+      </c>
+      <c r="AE12" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="AF12" t="n">
+        <v>30</v>
+      </c>
+      <c r="AG12" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AH12" t="n">
+        <v>70</v>
+      </c>
+      <c r="AI12" t="n">
+        <v>35</v>
+      </c>
+      <c r="AJ12" t="n">
+        <v>32</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -1670,10 +1718,10 @@
         <v>2.5</v>
       </c>
       <c r="H13" t="n">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="I13" t="n">
-        <v>2.7</v>
+        <v>2.75</v>
       </c>
       <c r="J13" t="n">
         <v>1.06</v>
@@ -1682,10 +1730,10 @@
         <v>10</v>
       </c>
       <c r="L13" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="M13" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="N13" t="n">
         <v>2.1</v>
@@ -1694,19 +1742,19 @@
         <v>1.7</v>
       </c>
       <c r="P13" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="Q13" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="R13" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="S13" t="n">
-        <v>1.91</v>
+        <v>1.83</v>
       </c>
       <c r="T13" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="U13" t="n">
         <v>12</v>
@@ -1721,10 +1769,10 @@
         <v>21</v>
       </c>
       <c r="Y13" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="Z13" t="n">
-        <v>9.5</v>
+        <v>8.5</v>
       </c>
       <c r="AA13" t="n">
         <v>6.5</v>
@@ -1736,19 +1784,19 @@
         <v>51</v>
       </c>
       <c r="AD13" t="n">
-        <v>251</v>
+        <v>301</v>
       </c>
       <c r="AE13" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AF13" t="n">
         <v>13</v>
       </c>
       <c r="AG13" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AH13" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AI13" t="n">
         <v>23</v>
@@ -1789,94 +1837,94 @@
         </is>
       </c>
       <c r="G14" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="H14" t="n">
-        <v>3.95</v>
+        <v>4.05</v>
       </c>
       <c r="I14" t="n">
-        <v>5.5</v>
+        <v>4.9</v>
       </c>
       <c r="J14" t="n">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="K14" t="n">
-        <v>7.8</v>
+        <v>8.5</v>
       </c>
       <c r="L14" t="n">
-        <v>1.26</v>
+        <v>1.22</v>
       </c>
       <c r="M14" t="n">
-        <v>3.45</v>
+        <v>3.8</v>
       </c>
       <c r="N14" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="O14" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="P14" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="R14" t="n">
         <v>1.78</v>
       </c>
-      <c r="O14" t="n">
+      <c r="S14" t="n">
         <v>1.93</v>
       </c>
-      <c r="P14" t="n">
-        <v>1.37</v>
-      </c>
-      <c r="Q14" t="n">
-        <v>2.85</v>
-      </c>
-      <c r="R14" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="S14" t="n">
-        <v>1.82</v>
-      </c>
       <c r="T14" t="n">
-        <v>6.7</v>
+        <v>7.7</v>
       </c>
       <c r="U14" t="n">
-        <v>7</v>
+        <v>7.7</v>
       </c>
       <c r="V14" t="n">
         <v>8.25</v>
       </c>
       <c r="W14" t="n">
-        <v>10.5</v>
+        <v>11.25</v>
       </c>
       <c r="X14" t="n">
-        <v>12.5</v>
+        <v>11.75</v>
       </c>
       <c r="Y14" t="n">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="Z14" t="n">
-        <v>7.8</v>
+        <v>8.5</v>
       </c>
       <c r="AA14" t="n">
-        <v>7.8</v>
+        <v>8.25</v>
       </c>
       <c r="AB14" t="n">
-        <v>17.5</v>
+        <v>16.5</v>
       </c>
       <c r="AC14" t="n">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="AD14" t="n">
-        <v>700</v>
+        <v>500</v>
       </c>
       <c r="AE14" t="n">
-        <v>15</v>
+        <v>15.5</v>
       </c>
       <c r="AF14" t="n">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="AG14" t="n">
-        <v>18</v>
+        <v>16.5</v>
       </c>
       <c r="AH14" t="n">
-        <v>110</v>
+        <v>90</v>
       </c>
       <c r="AI14" t="n">
-        <v>60</v>
+        <v>45</v>
       </c>
       <c r="AJ14" t="n">
-        <v>60</v>
+        <v>45</v>
       </c>
     </row>
   </sheetData>

--- a/Jogos_da_Semana_FlashScore_2025-06-11.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-06-11.xlsx
@@ -1487,90 +1487,90 @@
         </is>
       </c>
       <c r="G11" t="n">
-        <v>1.95</v>
+        <v>1.91</v>
       </c>
       <c r="H11" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="I11" t="n">
-        <v>3.75</v>
+        <v>3.95</v>
       </c>
       <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
       <c r="L11" t="n">
-        <v>1.36</v>
+        <v>1.39</v>
       </c>
       <c r="M11" t="n">
-        <v>2.67</v>
+        <v>2.55</v>
       </c>
       <c r="N11" t="n">
-        <v>2.05</v>
+        <v>2.15</v>
       </c>
       <c r="O11" t="n">
-        <v>1.6</v>
+        <v>1.55</v>
       </c>
       <c r="P11" t="n">
-        <v>1.47</v>
+        <v>1.45</v>
       </c>
       <c r="Q11" t="n">
-        <v>2.35</v>
+        <v>2.4</v>
       </c>
       <c r="R11" t="n">
-        <v>1.87</v>
+        <v>1.93</v>
       </c>
       <c r="S11" t="n">
-        <v>1.75</v>
+        <v>1.7</v>
       </c>
       <c r="T11" t="n">
-        <v>6.4</v>
+        <v>5.8</v>
       </c>
       <c r="U11" t="n">
+        <v>8</v>
+      </c>
+      <c r="V11" t="n">
         <v>8.75</v>
       </c>
-      <c r="V11" t="n">
-        <v>8.5</v>
-      </c>
       <c r="W11" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="X11" t="n">
-        <v>17</v>
+        <v>17.5</v>
       </c>
       <c r="Y11" t="n">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="Z11" t="n">
-        <v>8</v>
+        <v>7.6</v>
       </c>
       <c r="AA11" t="n">
         <v>6.3</v>
       </c>
       <c r="AB11" t="n">
-        <v>16.5</v>
+        <v>17.5</v>
       </c>
       <c r="AC11" t="n">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="AD11" t="n">
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="AE11" t="n">
-        <v>9.25</v>
+        <v>9.5</v>
       </c>
       <c r="AF11" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AG11" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="AH11" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="AI11" t="n">
         <v>40</v>
       </c>
       <c r="AJ11" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
     </row>
     <row r="12">
@@ -1730,10 +1730,10 @@
         <v>10</v>
       </c>
       <c r="L13" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="M13" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="N13" t="n">
         <v>2.1</v>
@@ -1837,88 +1837,88 @@
         </is>
       </c>
       <c r="G14" t="n">
-        <v>1.53</v>
+        <v>1.6</v>
       </c>
       <c r="H14" t="n">
-        <v>4.05</v>
+        <v>3.85</v>
       </c>
       <c r="I14" t="n">
-        <v>4.9</v>
+        <v>4.7</v>
       </c>
       <c r="J14" t="n">
         <v>1.04</v>
       </c>
       <c r="K14" t="n">
-        <v>8.5</v>
+        <v>8.25</v>
       </c>
       <c r="L14" t="n">
-        <v>1.22</v>
+        <v>1.23</v>
       </c>
       <c r="M14" t="n">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="N14" t="n">
-        <v>1.65</v>
+        <v>1.7</v>
       </c>
       <c r="O14" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="P14" t="n">
-        <v>1.33</v>
+        <v>1.34</v>
       </c>
       <c r="Q14" t="n">
-        <v>3.05</v>
+        <v>3</v>
       </c>
       <c r="R14" t="n">
-        <v>1.78</v>
+        <v>1.75</v>
       </c>
       <c r="S14" t="n">
-        <v>1.93</v>
+        <v>1.98</v>
       </c>
       <c r="T14" t="n">
-        <v>7.7</v>
+        <v>7.8</v>
       </c>
       <c r="U14" t="n">
-        <v>7.7</v>
+        <v>8</v>
       </c>
       <c r="V14" t="n">
+        <v>8</v>
+      </c>
+      <c r="W14" t="n">
+        <v>12</v>
+      </c>
+      <c r="X14" t="n">
+        <v>12</v>
+      </c>
+      <c r="Y14" t="n">
+        <v>23</v>
+      </c>
+      <c r="Z14" t="n">
         <v>8.25</v>
       </c>
-      <c r="W14" t="n">
-        <v>11.25</v>
-      </c>
-      <c r="X14" t="n">
-        <v>11.75</v>
-      </c>
-      <c r="Y14" t="n">
-        <v>24</v>
-      </c>
-      <c r="Z14" t="n">
-        <v>8.5</v>
-      </c>
       <c r="AA14" t="n">
-        <v>8.25</v>
+        <v>7.8</v>
       </c>
       <c r="AB14" t="n">
-        <v>16.5</v>
+        <v>15.5</v>
       </c>
       <c r="AC14" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="AD14" t="n">
-        <v>500</v>
+        <v>450</v>
       </c>
       <c r="AE14" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AF14" t="n">
+        <v>29</v>
+      </c>
+      <c r="AG14" t="n">
         <v>15.5</v>
       </c>
-      <c r="AF14" t="n">
-        <v>30</v>
-      </c>
-      <c r="AG14" t="n">
-        <v>16.5</v>
-      </c>
       <c r="AH14" t="n">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AI14" t="n">
         <v>45</v>

--- a/Jogos_da_Semana_FlashScore_2025-06-11.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-06-11.xlsx
@@ -904,13 +904,13 @@
         <v>3.7</v>
       </c>
       <c r="J6" t="n">
-        <v>1.08</v>
+        <v>1.05</v>
       </c>
       <c r="K6" t="n">
         <v>8</v>
       </c>
       <c r="L6" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="M6" t="n">
         <v>3</v>
@@ -1487,78 +1487,78 @@
         </is>
       </c>
       <c r="G11" t="n">
-        <v>1.91</v>
+        <v>1.85</v>
       </c>
       <c r="H11" t="n">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="I11" t="n">
-        <v>3.95</v>
+        <v>3.9</v>
       </c>
       <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
       <c r="L11" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="M11" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="N11" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="O11" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="P11" t="n">
         <v>1.39</v>
       </c>
-      <c r="M11" t="n">
-        <v>2.55</v>
-      </c>
-      <c r="N11" t="n">
-        <v>2.15</v>
-      </c>
-      <c r="O11" t="n">
-        <v>1.55</v>
-      </c>
-      <c r="P11" t="n">
-        <v>1.45</v>
-      </c>
       <c r="Q11" t="n">
-        <v>2.4</v>
+        <v>2.57</v>
       </c>
       <c r="R11" t="n">
-        <v>1.93</v>
+        <v>1.78</v>
       </c>
       <c r="S11" t="n">
-        <v>1.7</v>
+        <v>1.83</v>
       </c>
       <c r="T11" t="n">
-        <v>5.8</v>
+        <v>7</v>
       </c>
       <c r="U11" t="n">
-        <v>8</v>
+        <v>8.75</v>
       </c>
       <c r="V11" t="n">
-        <v>8.75</v>
+        <v>8.25</v>
       </c>
       <c r="W11" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="X11" t="n">
-        <v>17.5</v>
+        <v>15</v>
       </c>
       <c r="Y11" t="n">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="Z11" t="n">
-        <v>7.6</v>
+        <v>9.5</v>
       </c>
       <c r="AA11" t="n">
-        <v>6.3</v>
+        <v>6.6</v>
       </c>
       <c r="AB11" t="n">
-        <v>17.5</v>
+        <v>15.5</v>
       </c>
       <c r="AC11" t="n">
-        <v>100</v>
+        <v>75</v>
       </c>
       <c r="AD11" t="n">
-        <v>1000</v>
+        <v>600</v>
       </c>
       <c r="AE11" t="n">
-        <v>9.5</v>
+        <v>10.5</v>
       </c>
       <c r="AF11" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AG11" t="n">
         <v>13.5</v>
@@ -1567,10 +1567,10 @@
         <v>60</v>
       </c>
       <c r="AI11" t="n">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="AJ11" t="n">
-        <v>55</v>
+        <v>45</v>
       </c>
     </row>
     <row r="12">
@@ -1715,13 +1715,13 @@
         </is>
       </c>
       <c r="G13" t="n">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="H13" t="n">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="I13" t="n">
-        <v>2.75</v>
+        <v>2.7</v>
       </c>
       <c r="J13" t="n">
         <v>1.06</v>
@@ -1736,16 +1736,16 @@
         <v>3.25</v>
       </c>
       <c r="N13" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="O13" t="n">
-        <v>1.7</v>
+        <v>1.75</v>
       </c>
       <c r="P13" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="Q13" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="R13" t="n">
         <v>1.83</v>
@@ -1754,7 +1754,7 @@
         <v>1.83</v>
       </c>
       <c r="T13" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="U13" t="n">
         <v>12</v>
@@ -1769,10 +1769,10 @@
         <v>21</v>
       </c>
       <c r="Y13" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="Z13" t="n">
-        <v>8.5</v>
+        <v>9.5</v>
       </c>
       <c r="AA13" t="n">
         <v>6.5</v>
@@ -1784,10 +1784,10 @@
         <v>51</v>
       </c>
       <c r="AD13" t="n">
-        <v>301</v>
+        <v>251</v>
       </c>
       <c r="AE13" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AF13" t="n">
         <v>13</v>

--- a/Jogos_da_Semana_FlashScore_2025-06-11.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-06-11.xlsx
@@ -904,13 +904,13 @@
         <v>3.7</v>
       </c>
       <c r="J6" t="n">
-        <v>1.05</v>
+        <v>1.08</v>
       </c>
       <c r="K6" t="n">
         <v>8</v>
       </c>
       <c r="L6" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="M6" t="n">
         <v>3</v>
@@ -1490,24 +1490,24 @@
         <v>1.85</v>
       </c>
       <c r="H11" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="I11" t="n">
-        <v>3.9</v>
+        <v>3.85</v>
       </c>
       <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
       <c r="L11" t="n">
-        <v>1.3</v>
+        <v>1.26</v>
       </c>
       <c r="M11" t="n">
-        <v>2.95</v>
+        <v>3.15</v>
       </c>
       <c r="N11" t="n">
-        <v>1.88</v>
+        <v>1.78</v>
       </c>
       <c r="O11" t="n">
-        <v>1.72</v>
+        <v>1.83</v>
       </c>
       <c r="P11" t="n">
         <v>1.39</v>
@@ -1516,16 +1516,16 @@
         <v>2.57</v>
       </c>
       <c r="R11" t="n">
-        <v>1.78</v>
+        <v>1.7</v>
       </c>
       <c r="S11" t="n">
-        <v>1.83</v>
+        <v>1.93</v>
       </c>
       <c r="T11" t="n">
-        <v>7</v>
+        <v>7.6</v>
       </c>
       <c r="U11" t="n">
-        <v>8.75</v>
+        <v>9</v>
       </c>
       <c r="V11" t="n">
         <v>8.25</v>
@@ -1534,43 +1534,43 @@
         <v>15.5</v>
       </c>
       <c r="X11" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="Y11" t="n">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="Z11" t="n">
-        <v>9.5</v>
+        <v>10.5</v>
       </c>
       <c r="AA11" t="n">
-        <v>6.6</v>
+        <v>6.8</v>
       </c>
       <c r="AB11" t="n">
-        <v>15.5</v>
+        <v>14</v>
       </c>
       <c r="AC11" t="n">
-        <v>75</v>
+        <v>60</v>
       </c>
       <c r="AD11" t="n">
-        <v>600</v>
+        <v>450</v>
       </c>
       <c r="AE11" t="n">
-        <v>10.5</v>
+        <v>11.5</v>
       </c>
       <c r="AF11" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AG11" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="AH11" t="n">
         <v>60</v>
       </c>
       <c r="AI11" t="n">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="AJ11" t="n">
-        <v>45</v>
+        <v>40</v>
       </c>
     </row>
     <row r="12">
@@ -1618,24 +1618,24 @@
       <c r="L12" t="inlineStr"/>
       <c r="M12" t="inlineStr"/>
       <c r="N12" t="n">
-        <v>1.47</v>
+        <v>1.45</v>
       </c>
       <c r="O12" t="n">
-        <v>2.35</v>
+        <v>2.37</v>
       </c>
       <c r="P12" t="inlineStr"/>
       <c r="Q12" t="inlineStr"/>
       <c r="R12" t="n">
-        <v>1.53</v>
+        <v>1.52</v>
       </c>
       <c r="S12" t="n">
         <v>2.2</v>
       </c>
       <c r="T12" t="n">
-        <v>10</v>
+        <v>10.25</v>
       </c>
       <c r="U12" t="n">
-        <v>9.5</v>
+        <v>9.75</v>
       </c>
       <c r="V12" t="n">
         <v>8.25</v>
@@ -1650,7 +1650,7 @@
         <v>18.5</v>
       </c>
       <c r="Z12" t="n">
-        <v>17</v>
+        <v>17.5</v>
       </c>
       <c r="AA12" t="n">
         <v>8.75</v>
@@ -1665,7 +1665,7 @@
         <v>250</v>
       </c>
       <c r="AE12" t="n">
-        <v>17.5</v>
+        <v>18</v>
       </c>
       <c r="AF12" t="n">
         <v>30</v>
@@ -1715,13 +1715,13 @@
         </is>
       </c>
       <c r="G13" t="n">
-        <v>2.4</v>
+        <v>2.45</v>
       </c>
       <c r="H13" t="n">
         <v>3.4</v>
       </c>
       <c r="I13" t="n">
-        <v>2.7</v>
+        <v>2.75</v>
       </c>
       <c r="J13" t="n">
         <v>1.06</v>
@@ -1837,13 +1837,13 @@
         </is>
       </c>
       <c r="G14" t="n">
-        <v>1.6</v>
+        <v>1.62</v>
       </c>
       <c r="H14" t="n">
         <v>3.85</v>
       </c>
       <c r="I14" t="n">
-        <v>4.7</v>
+        <v>4.5</v>
       </c>
       <c r="J14" t="n">
         <v>1.04</v>
@@ -1870,25 +1870,25 @@
         <v>3</v>
       </c>
       <c r="R14" t="n">
-        <v>1.75</v>
+        <v>1.72</v>
       </c>
       <c r="S14" t="n">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="T14" t="n">
         <v>7.8</v>
       </c>
       <c r="U14" t="n">
-        <v>8</v>
+        <v>8.25</v>
       </c>
       <c r="V14" t="n">
         <v>8</v>
       </c>
       <c r="W14" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="X14" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="Y14" t="n">
         <v>23</v>
@@ -1897,13 +1897,13 @@
         <v>8.25</v>
       </c>
       <c r="AA14" t="n">
-        <v>7.8</v>
+        <v>7.7</v>
       </c>
       <c r="AB14" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="AC14" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="AD14" t="n">
         <v>450</v>
@@ -1912,19 +1912,19 @@
         <v>14.5</v>
       </c>
       <c r="AF14" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AG14" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="AH14" t="n">
         <v>80</v>
       </c>
       <c r="AI14" t="n">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="AJ14" t="n">
-        <v>45</v>
+        <v>40</v>
       </c>
     </row>
   </sheetData>
